--- a/results/mp/logistic/corona/confidence/42/stop-words-masking-0.35/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/42/stop-words-masking-0.35/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="75">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,63 +46,66 @@
     <t>crisis</t>
   </si>
   <si>
+    <t>fraud</t>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>forced</t>
+  </si>
+  <si>
     <t>die</t>
   </si>
   <si>
-    <t>forced</t>
-  </si>
-  <si>
     <t>war</t>
   </si>
   <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
     <t>died</t>
   </si>
   <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>fears</t>
+  </si>
+  <si>
     <t>drop</t>
   </si>
   <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>fears</t>
-  </si>
-  <si>
     <t>panic</t>
   </si>
   <si>
+    <t>shit</t>
+  </si>
+  <si>
     <t>falling</t>
   </si>
   <si>
     <t>low</t>
   </si>
   <si>
+    <t>emergency</t>
+  </si>
+  <si>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>lower</t>
+  </si>
+  <si>
     <t>cut</t>
   </si>
   <si>
-    <t>emergency</t>
-  </si>
-  <si>
-    <t>avoid</t>
-  </si>
-  <si>
-    <t>lower</t>
-  </si>
-  <si>
     <t>risk</t>
   </si>
   <si>
+    <t>stop</t>
+  </si>
+  <si>
     <t>empty</t>
   </si>
   <si>
-    <t>stop</t>
-  </si>
-  <si>
     <t>demand</t>
   </si>
   <si>
@@ -118,124 +121,124 @@
     <t>19</t>
   </si>
   <si>
+    <t>corona</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
+    <t>free</t>
+  </si>
+  <si>
     <t>great</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>happy</t>
+    <t>special</t>
   </si>
   <si>
     <t>hand</t>
   </si>
   <si>
-    <t>special</t>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>thank</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
     <t>nice</t>
   </si>
   <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>heroes</t>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>better</t>
   </si>
   <si>
     <t>join</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>gt</t>
+    <t>like</t>
   </si>
   <si>
     <t>save</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>fresh</t>
+    <t>help</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>please</t>
   </si>
   <si>
     <t>giving</t>
   </si>
   <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>hope</t>
+    <t>relief</t>
   </si>
   <si>
     <t>care</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
     <t>alert</t>
   </si>
   <si>
+    <t>important</t>
+  </si>
+  <si>
     <t>safety</t>
   </si>
   <si>
+    <t>sure</t>
+  </si>
+  <si>
     <t>protect</t>
   </si>
   <si>
-    <t>helping</t>
-  </si>
-  <si>
     <t>increase</t>
   </si>
   <si>
-    <t>need</t>
-  </si>
-  <si>
-    <t>corona</t>
+    <t>grocery</t>
   </si>
 </sst>
 </file>
@@ -601,7 +604,7 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J1" t="s">
         <v>44</v>
@@ -662,13 +665,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8823529411764706</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="C3">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D3">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -680,10 +683,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K3">
         <v>0.9347826086956522</v>
@@ -712,13 +715,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8321917808219178</v>
+        <v>0.8082191780821918</v>
       </c>
       <c r="C4">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="D4">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -730,19 +733,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K4">
-        <v>0.8983050847457628</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L4">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="M4">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -754,7 +757,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -762,13 +765,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8108108108108109</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="C5">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D5">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -783,16 +786,16 @@
         <v>7</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K5">
-        <v>0.8839285714285714</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L5">
-        <v>99</v>
+        <v>54</v>
       </c>
       <c r="M5">
-        <v>99</v>
+        <v>54</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -804,7 +807,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -812,7 +815,7 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7931034482758621</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="C6">
         <v>23</v>
@@ -830,19 +833,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K6">
-        <v>0.8833333333333333</v>
+        <v>0.9083333333333333</v>
       </c>
       <c r="L6">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="M6">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -854,7 +857,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -862,13 +865,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7894736842105263</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="C7">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D7">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -880,19 +883,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K7">
-        <v>0.8461538461538461</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L7">
-        <v>22</v>
+        <v>97</v>
       </c>
       <c r="M7">
-        <v>22</v>
+        <v>97</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -904,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -912,7 +915,7 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7777777777777778</v>
+        <v>0.7567567567567568</v>
       </c>
       <c r="C8">
         <v>28</v>
@@ -930,19 +933,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K8">
-        <v>0.8381201044386423</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L8">
-        <v>321</v>
+        <v>30</v>
       </c>
       <c r="M8">
-        <v>321</v>
+        <v>30</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -954,7 +957,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>62</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -962,13 +965,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7666666666666667</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C9">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D9">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -980,19 +983,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K9">
-        <v>0.8333333333333334</v>
+        <v>0.8198433420365535</v>
       </c>
       <c r="L9">
-        <v>30</v>
+        <v>314</v>
       </c>
       <c r="M9">
-        <v>30</v>
+        <v>314</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1004,7 +1007,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>6</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1033,16 +1036,16 @@
         <v>7</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K10">
-        <v>0.8292682926829268</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L10">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="M10">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1054,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1062,13 +1065,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.576271186440678</v>
+        <v>0.5502645502645502</v>
       </c>
       <c r="C11">
-        <v>34</v>
+        <v>104</v>
       </c>
       <c r="D11">
-        <v>34</v>
+        <v>104</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1080,19 +1083,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K11">
-        <v>0.8148148148148148</v>
+        <v>0.8098591549295775</v>
       </c>
       <c r="L11">
-        <v>22</v>
+        <v>115</v>
       </c>
       <c r="M11">
-        <v>22</v>
+        <v>115</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1104,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1112,13 +1115,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5714285714285714</v>
+        <v>0.5490196078431373</v>
       </c>
       <c r="C12">
-        <v>108</v>
+        <v>28</v>
       </c>
       <c r="D12">
-        <v>108</v>
+        <v>28</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1130,19 +1133,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K12">
-        <v>0.7931034482758621</v>
+        <v>0.8046875</v>
       </c>
       <c r="L12">
-        <v>46</v>
+        <v>103</v>
       </c>
       <c r="M12">
-        <v>46</v>
+        <v>103</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1154,7 +1157,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1162,13 +1165,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5686274509803921</v>
+        <v>0.5423728813559322</v>
       </c>
       <c r="C13">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D13">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1180,19 +1183,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K13">
-        <v>0.7924528301886793</v>
+        <v>0.7926829268292683</v>
       </c>
       <c r="L13">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="M13">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1204,7 +1207,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1212,13 +1215,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5329457364341085</v>
+        <v>0.5135658914728682</v>
       </c>
       <c r="C14">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="D14">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1230,19 +1233,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K14">
-        <v>0.7887323943661971</v>
+        <v>0.7878787878787878</v>
       </c>
       <c r="L14">
-        <v>112</v>
+        <v>26</v>
       </c>
       <c r="M14">
-        <v>112</v>
+        <v>26</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1254,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>30</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1262,13 +1265,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.525</v>
+        <v>0.5128205128205128</v>
       </c>
       <c r="C15">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D15">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1283,16 +1286,16 @@
         <v>19</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K15">
-        <v>0.7878787878787878</v>
+        <v>0.7659574468085106</v>
       </c>
       <c r="L15">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="M15">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1304,7 +1307,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1312,13 +1315,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.4899328859060403</v>
+        <v>0.475</v>
       </c>
       <c r="C16">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="D16">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1330,19 +1333,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K16">
-        <v>0.7857142857142857</v>
+        <v>0.7641509433962265</v>
       </c>
       <c r="L16">
-        <v>22</v>
+        <v>81</v>
       </c>
       <c r="M16">
-        <v>22</v>
+        <v>81</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1354,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>6</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1362,13 +1365,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.4181818181818182</v>
+        <v>0.4429530201342282</v>
       </c>
       <c r="C17">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="D17">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1380,19 +1383,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K17">
-        <v>0.76875</v>
+        <v>0.75</v>
       </c>
       <c r="L17">
-        <v>123</v>
+        <v>27</v>
       </c>
       <c r="M17">
-        <v>123</v>
+        <v>27</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1404,7 +1407,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>37</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1412,13 +1415,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.4</v>
+        <v>0.4266666666666667</v>
       </c>
       <c r="C18">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D18">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1430,19 +1433,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K18">
-        <v>0.765625</v>
+        <v>0.75</v>
       </c>
       <c r="L18">
-        <v>98</v>
+        <v>36</v>
       </c>
       <c r="M18">
-        <v>98</v>
+        <v>36</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1454,7 +1457,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1462,13 +1465,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.3636363636363636</v>
+        <v>0.4</v>
       </c>
       <c r="C19">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D19">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1480,19 +1483,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K19">
         <v>0.75</v>
       </c>
       <c r="L19">
-        <v>27</v>
+        <v>120</v>
       </c>
       <c r="M19">
-        <v>27</v>
+        <v>120</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1504,7 +1507,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>9</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1512,38 +1515,38 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.3571428571428572</v>
+        <v>0.375</v>
       </c>
       <c r="C20">
+        <v>21</v>
+      </c>
+      <c r="D20">
+        <v>21</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>35</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K20">
+        <v>0.7407407407407407</v>
+      </c>
+      <c r="L20">
         <v>20</v>
       </c>
-      <c r="D20">
+      <c r="M20">
         <v>20</v>
       </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>36</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K20">
-        <v>0.7446808510638298</v>
-      </c>
-      <c r="L20">
-        <v>35</v>
-      </c>
-      <c r="M20">
-        <v>35</v>
-      </c>
       <c r="N20">
         <v>1</v>
       </c>
@@ -1554,7 +1557,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1562,13 +1565,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.2987012987012987</v>
+        <v>0.3454545454545455</v>
       </c>
       <c r="C21">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D21">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1580,19 +1583,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K21">
-        <v>0.7441860465116279</v>
+        <v>0.725</v>
       </c>
       <c r="L21">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="M21">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1612,13 +1615,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.2888888888888889</v>
+        <v>0.3246753246753247</v>
       </c>
       <c r="C22">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D22">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1630,19 +1633,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K22">
-        <v>0.7301587301587301</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L22">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M22">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1654,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1662,13 +1665,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.253968253968254</v>
+        <v>0.2817460317460317</v>
       </c>
       <c r="C23">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="D23">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1680,19 +1683,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K23">
-        <v>0.7</v>
+        <v>0.6744186046511628</v>
       </c>
       <c r="L23">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M23">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1704,7 +1707,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1712,13 +1715,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.2010723860589812</v>
+        <v>0.2333333333333333</v>
       </c>
       <c r="C24">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="D24">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1730,19 +1733,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>298</v>
+        <v>69</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K24">
-        <v>0.6857142857142857</v>
+        <v>0.6588235294117647</v>
       </c>
       <c r="L24">
-        <v>24</v>
+        <v>224</v>
       </c>
       <c r="M24">
-        <v>24</v>
+        <v>224</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1754,7 +1757,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>11</v>
+        <v>116</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1762,13 +1765,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.09666666666666666</v>
+        <v>0.1742627345844504</v>
       </c>
       <c r="C25">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="D25">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1780,19 +1783,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>271</v>
+        <v>308</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K25">
-        <v>0.6676470588235294</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="L25">
-        <v>227</v>
+        <v>23</v>
       </c>
       <c r="M25">
-        <v>227</v>
+        <v>23</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1804,7 +1807,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>113</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1812,37 +1815,37 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.025</v>
+        <v>0.09</v>
       </c>
       <c r="C26">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D26">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E26">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26">
-        <v>1131</v>
+        <v>273</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K26">
-        <v>0.6666666666666666</v>
+        <v>0.6305084745762712</v>
       </c>
       <c r="L26">
-        <v>32</v>
+        <v>186</v>
       </c>
       <c r="M26">
-        <v>32</v>
+        <v>186</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1854,7 +1857,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>16</v>
+        <v>109</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1862,37 +1865,37 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.01388888888888889</v>
+        <v>0.01810344827586207</v>
       </c>
       <c r="C27">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="D27">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="E27">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
       <c r="F27">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="G27" t="b">
         <v>1</v>
       </c>
       <c r="H27">
-        <v>3053</v>
+        <v>1139</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K27">
-        <v>0.6363636363636364</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="L27">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="M27">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1904,7 +1907,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1912,63 +1915,87 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.01172058134083451</v>
+        <v>0.01451612903225807</v>
       </c>
       <c r="C28">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="D28">
+        <v>52</v>
+      </c>
+      <c r="E28">
+        <v>0.13</v>
+      </c>
+      <c r="F28">
+        <v>0.87</v>
+      </c>
+      <c r="G28" t="b">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>3055</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K28">
+        <v>0.6142857142857143</v>
+      </c>
+      <c r="L28">
+        <v>43</v>
+      </c>
+      <c r="M28">
+        <v>43</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="A29" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29">
+        <v>0.01218369259606373</v>
+      </c>
+      <c r="C29">
+        <v>26</v>
+      </c>
+      <c r="D29">
         <v>35</v>
       </c>
-      <c r="E28">
-        <v>0.29</v>
-      </c>
-      <c r="F28">
-        <v>0.71</v>
-      </c>
-      <c r="G28" t="b">
-        <v>1</v>
-      </c>
-      <c r="H28">
+      <c r="E29">
+        <v>0.26</v>
+      </c>
+      <c r="F29">
+        <v>0.74</v>
+      </c>
+      <c r="G29" t="b">
+        <v>1</v>
+      </c>
+      <c r="H29">
         <v>2108</v>
       </c>
-      <c r="J28" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="K28">
-        <v>0.6135593220338983</v>
-      </c>
-      <c r="L28">
-        <v>181</v>
-      </c>
-      <c r="M28">
-        <v>181</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K29">
-        <v>0.6063829787234043</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="L29">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M29">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1980,21 +2007,45 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:17">
+      <c r="A30" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30">
+        <v>0.006628787878787879</v>
+      </c>
+      <c r="C30">
+        <v>21</v>
+      </c>
+      <c r="D30">
+        <v>54</v>
+      </c>
+      <c r="E30">
+        <v>0.61</v>
+      </c>
+      <c r="F30">
+        <v>0.39</v>
+      </c>
+      <c r="G30" t="b">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <v>3147</v>
+      </c>
       <c r="J30" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K30">
-        <v>0.6</v>
+        <v>0.5941422594142259</v>
       </c>
       <c r="L30">
-        <v>42</v>
+        <v>142</v>
       </c>
       <c r="M30">
-        <v>42</v>
+        <v>142</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2006,21 +2057,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>28</v>
+        <v>97</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K31">
-        <v>0.5857740585774058</v>
+        <v>0.5757575757575758</v>
       </c>
       <c r="L31">
-        <v>140</v>
+        <v>19</v>
       </c>
       <c r="M31">
-        <v>140</v>
+        <v>19</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2032,21 +2083,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>99</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K32">
-        <v>0.5692307692307692</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="L32">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="M32">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2058,12 +2109,12 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K33">
         <v>0.550561797752809</v>
@@ -2089,16 +2140,16 @@
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K34">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="L34">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="M34">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2110,21 +2161,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K35">
-        <v>0.4523809523809524</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="L35">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="M35">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2141,16 +2192,16 @@
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K36">
-        <v>0.4509803921568628</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="L36">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M36">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2162,21 +2213,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K37">
-        <v>0.3972602739726027</v>
+        <v>0.390625</v>
       </c>
       <c r="L37">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="M37">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2188,21 +2239,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K38">
-        <v>0.3728813559322034</v>
+        <v>0.3424657534246575</v>
       </c>
       <c r="L38">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="M38">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2214,21 +2265,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>37</v>
+        <v>48</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K39">
-        <v>0.3461538461538461</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L39">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M39">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2240,21 +2291,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K40">
-        <v>0.06574394463667819</v>
+        <v>0.02330743618201998</v>
       </c>
       <c r="L40">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M40">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2266,33 +2317,33 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>270</v>
+        <v>880</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="K41">
-        <v>0.0103643216080402</v>
+        <v>0.01037735849056604</v>
       </c>
       <c r="L41">
         <v>33</v>
       </c>
       <c r="M41">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="N41">
-        <v>0.66</v>
+        <v>0.61</v>
       </c>
       <c r="O41">
-        <v>0.34</v>
+        <v>0.39</v>
       </c>
       <c r="P41" t="b">
         <v>1</v>
       </c>
       <c r="Q41">
-        <v>3151</v>
+        <v>3147</v>
       </c>
     </row>
   </sheetData>
